--- a/Documentation/Project2-SystemOverview.xlsx
+++ b/Documentation/Project2-SystemOverview.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EvolveU\Project2\POS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EvolveU\Project2\POS\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1434F452-6FE0-4046-9610-5DEF08AA7170}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D0DD2F-ADBE-4327-8E3F-5B2C3E89AF38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1714,6 +1714,12 @@
           <a:r>
             <a:rPr lang="en-CA" sz="1100"/>
             <a:t>- active</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100"/>
+            <a:t>- fulfilled</a:t>
           </a:r>
         </a:p>
         <a:p>

--- a/Documentation/Project2-SystemOverview.xlsx
+++ b/Documentation/Project2-SystemOverview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EvolveU\Project2\POS\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D0DD2F-ADBE-4327-8E3F-5B2C3E89AF38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F13C39-642A-49CC-B795-870CA1E106F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -2592,7 +2592,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t> Type</a:t>
+            <a:t> Level</a:t>
           </a:r>
           <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
         </a:p>
@@ -3891,8 +3891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="AG26" sqref="AG26"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AD28" sqref="AD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
